--- a/FAST codes/Charts/21June23/21June23_standard_deviation.xlsx
+++ b/FAST codes/Charts/21June23/21June23_standard_deviation.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>G1TAverage</t>
+          <t>G1Average</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>G2TAverage</t>
+          <t>G2Average</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>G3TAverage</t>
+          <t>G3Average</t>
         </is>
       </c>
     </row>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.277</v>
+        <v>0.03511819862476508</v>
       </c>
       <c r="C2" t="n">
-        <v>26.029</v>
+        <v>1.308259232683695</v>
       </c>
       <c r="D2" t="n">
-        <v>11.991</v>
+        <v>0.887361501376306</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>0.46</v>
       </c>
       <c r="B3" t="n">
-        <v>78.47799999999999</v>
+        <v>0.7006766078843778</v>
       </c>
       <c r="C3" t="n">
-        <v>61.351</v>
+        <v>2.133469995369834</v>
       </c>
       <c r="D3" t="n">
-        <v>19.941</v>
+        <v>1.183077176472215</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1.06</v>
       </c>
       <c r="B4" t="n">
-        <v>90.88200000000001</v>
+        <v>0.359289906979248</v>
       </c>
       <c r="C4" t="n">
-        <v>75.861</v>
+        <v>1.536962481590443</v>
       </c>
       <c r="D4" t="n">
-        <v>25.356</v>
+        <v>2.564928891605146</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>1.54</v>
       </c>
       <c r="B5" t="n">
-        <v>92.126</v>
+        <v>0.324713627535774</v>
       </c>
       <c r="C5" t="n">
-        <v>77.485</v>
+        <v>1.814578581024256</v>
       </c>
       <c r="D5" t="n">
-        <v>23.629</v>
+        <v>1.434891811538614</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>1.74</v>
       </c>
       <c r="B6" t="n">
-        <v>92.172</v>
+        <v>0.3307040767230912</v>
       </c>
       <c r="C6" t="n">
-        <v>77.36</v>
+        <v>2.010601629245614</v>
       </c>
       <c r="D6" t="n">
-        <v>21.088</v>
+        <v>3.833087837191372</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>1.92</v>
       </c>
       <c r="B7" t="n">
-        <v>92.163</v>
+        <v>0.3355840942712019</v>
       </c>
       <c r="C7" t="n">
-        <v>77.255</v>
+        <v>2.123598306864522</v>
       </c>
       <c r="D7" t="n">
-        <v>20.69</v>
+        <v>3.924112133591784</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>2.29</v>
       </c>
       <c r="B8" t="n">
-        <v>92.053</v>
+        <v>0.3567202480025369</v>
       </c>
       <c r="C8" t="n">
-        <v>77.02200000000001</v>
+        <v>2.352874331353946</v>
       </c>
       <c r="D8" t="n">
-        <v>20.86</v>
+        <v>4.071401430668483</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>2.62</v>
       </c>
       <c r="B9" t="n">
-        <v>91.90600000000001</v>
+        <v>0.3843270160632123</v>
       </c>
       <c r="C9" t="n">
-        <v>76.65600000000001</v>
+        <v>2.434673953607001</v>
       </c>
       <c r="D9" t="n">
-        <v>20.197</v>
+        <v>3.823405377732306</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>2.85</v>
       </c>
       <c r="B10" t="n">
-        <v>91.804</v>
+        <v>0.4084396406115273</v>
       </c>
       <c r="C10" t="n">
-        <v>76.39</v>
+        <v>2.433351502471624</v>
       </c>
       <c r="D10" t="n">
-        <v>20.452</v>
+        <v>4.628369124207144</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>3.03</v>
       </c>
       <c r="B11" t="n">
-        <v>91.71599999999999</v>
+        <v>0.4268015692392035</v>
       </c>
       <c r="C11" t="n">
-        <v>76.19799999999999</v>
+        <v>2.586619351771422</v>
       </c>
       <c r="D11" t="n">
-        <v>20.123</v>
+        <v>4.564905883391354</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>3.24</v>
       </c>
       <c r="B12" t="n">
-        <v>91.628</v>
+        <v>0.4308948270530906</v>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>2.593154939409023</v>
       </c>
       <c r="D12" t="n">
-        <v>20.051</v>
+        <v>4.481668088431671</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>3.42</v>
       </c>
       <c r="B13" t="n">
-        <v>90.908</v>
+        <v>0.4264567553194175</v>
       </c>
       <c r="C13" t="n">
-        <v>75.419</v>
+        <v>2.616301905094335</v>
       </c>
       <c r="D13" t="n">
-        <v>19.842</v>
+        <v>4.740401131353103</v>
       </c>
     </row>
   </sheetData>
